--- a/data/trans_orig/P36_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA9DC64E-426A-4D84-8288-5B1DFC387F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{737C3716-D213-47EF-A44F-AEE568121516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{39BBB122-7F83-4FB9-B743-3674949238CA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{015A9F48-51BC-4FCD-ABDD-926D5554A2B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>78,33%</t>
   </si>
   <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
   <si>
     <t>77,83%</t>
   </si>
   <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
   </si>
   <si>
     <t>78,09%</t>
   </si>
   <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
   </si>
   <si>
     <t>0.0</t>
@@ -104,28 +104,28 @@
     <t>21,67%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
   </si>
   <si>
     <t>22,17%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
   </si>
   <si>
     <t>21,91%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>76,19%</t>
   </si>
   <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
   </si>
   <si>
     <t>71,35%</t>
   </si>
   <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
   </si>
   <si>
     <t>73,61%</t>
   </si>
   <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>23,81%</t>
   </si>
   <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
   </si>
   <si>
     <t>28,65%</t>
   </si>
   <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
   </si>
   <si>
     <t>26,39%</t>
   </si>
   <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>68,37%</t>
   </si>
   <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
   </si>
   <si>
     <t>68,45%</t>
   </si>
   <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
   </si>
   <si>
     <t>68,41%</t>
   </si>
   <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
   </si>
   <si>
     <t>31,63%</t>
   </si>
   <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
   </si>
   <si>
     <t>31,55%</t>
   </si>
   <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
   </si>
   <si>
     <t>31,59%</t>
   </si>
   <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>66,16%</t>
   </si>
   <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
   </si>
   <si>
     <t>61,48%</t>
   </si>
   <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
   </si>
   <si>
     <t>63,77%</t>
   </si>
   <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
   </si>
   <si>
     <t>33,84%</t>
   </si>
   <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
   </si>
   <si>
     <t>38,52%</t>
   </si>
   <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
   </si>
   <si>
     <t>36,23%</t>
   </si>
   <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>65,19%</t>
   </si>
   <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
   </si>
   <si>
     <t>64,22%</t>
   </si>
   <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
   </si>
   <si>
     <t>64,7%</t>
   </si>
   <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
   </si>
   <si>
     <t>34,81%</t>
   </si>
   <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
   </si>
   <si>
     <t>35,78%</t>
   </si>
   <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
   </si>
   <si>
     <t>35,3%</t>
   </si>
   <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,79 +365,79 @@
     <t>63,85%</t>
   </si>
   <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
   </si>
   <si>
     <t>58,88%</t>
   </si>
   <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
   </si>
   <si>
     <t>60,86%</t>
   </si>
   <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
   </si>
   <si>
     <t>36,15%</t>
   </si>
   <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
   </si>
   <si>
     <t>41,12%</t>
   </si>
   <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
   </si>
   <si>
     <t>39,14%</t>
   </si>
   <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
   </si>
   <si>
     <t>66,63%</t>
   </si>
   <si>
-    <t>62,85%</t>
+    <t>63,03%</t>
   </si>
   <si>
     <t>68,28%</t>
@@ -446,19 +446,19 @@
     <t>31,53%</t>
   </si>
   <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
   </si>
   <si>
     <t>34,98%</t>
   </si>
   <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>33,37%</t>
@@ -467,7 +467,7 @@
     <t>31,72%</t>
   </si>
   <si>
-    <t>37,15%</t>
+    <t>36,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1266D4BC-FB94-4678-A848-E69D64BAEA46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF0B08E-4AC2-4F1D-9CA7-827893214991}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1963,7 +1963,7 @@
         <v>5453</v>
       </c>
       <c r="N22" s="7">
-        <v>4491206</v>
+        <v>4491205</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -2065,7 +2065,7 @@
         <v>8242</v>
       </c>
       <c r="N24" s="7">
-        <v>6740442</v>
+        <v>6740441</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P36_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36_R2-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{737C3716-D213-47EF-A44F-AEE568121516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFC0C1BF-1E57-4C2D-AB4D-CF4433DEE506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{015A9F48-51BC-4FCD-ABDD-926D5554A2B8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{04481B77-9290-4DF4-8237-72D9A973CA1F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF0B08E-4AC2-4F1D-9CA7-827893214991}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8748860A-9C89-497D-9ED9-A6D9CE64FF66}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
